--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CF8897-575E-4511-A3DF-DFEA6590E7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFEEF1-BF4F-4CE3-AE0E-6A3B57CE93E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="2415" windowWidth="13920" windowHeight="25350" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11370" yWindow="645" windowWidth="18915" windowHeight="10815" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat Multitrauma Overview" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="215">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -404,13 +406,7 @@
     <t>Moderate Decrease [S2]</t>
   </si>
   <si>
-    <t>5500 [7]</t>
-  </si>
-  <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
   <si>
     <t>Note: Blood Volume is a direct calculation</t>
@@ -647,12 +643,6 @@
     <t>102</t>
   </si>
   <si>
-    <t>5591</t>
-  </si>
-  <si>
-    <t>5028</t>
-  </si>
-  <si>
     <t>5280</t>
   </si>
   <si>
@@ -665,13 +655,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>NC or Slight Increase [S2]</t>
-  </si>
-  <si>
-    <t>851</t>
   </si>
   <si>
     <t>4.3</t>
@@ -794,9 +778,6 @@
     <t>Van Leeuwen, Anne M., and Mickey Lynn Bladh. Comprehensive Handbook of Laboratory &amp; Diagnostic Tests with Nursing Implications. FA Davis, 2015. P471</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>~90% of Baseline [S2]</t>
   </si>
   <si>
@@ -806,19 +787,10 @@
     <t>5250</t>
   </si>
   <si>
-    <t>5700</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>75</t>
   </si>
   <si>
     <t>70</t>
-  </si>
-  <si>
-    <t>6600</t>
   </si>
   <si>
     <t>450</t>
@@ -887,9 +859,6 @@
     <t>25</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -899,9 +868,6 @@
     <t>92</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>97</t>
   </si>
   <si>
@@ -911,24 +877,12 @@
     <t>78</t>
   </si>
   <si>
-    <t>5200</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
     <t>5500</t>
   </si>
   <si>
-    <t>6000</t>
-  </si>
-  <si>
     <t>16.5</t>
   </si>
   <si>
-    <t>22.5</t>
-  </si>
-  <si>
     <t>0.92</t>
   </si>
   <si>
@@ -941,16 +895,82 @@
     <t>250</t>
   </si>
   <si>
-    <t>325</t>
-  </si>
-  <si>
     <t>2600</t>
   </si>
   <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>2200</t>
+    <t>135</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>5400</t>
+  </si>
+  <si>
+    <t>5400 [7]</t>
+  </si>
+  <si>
+    <t>5100</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Mild Decrease [18] due ot drug, but IV fluids increases</t>
+  </si>
+  <si>
+    <t>6400</t>
+  </si>
+  <si>
+    <t>4700</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>Mild Decrease [S2] under baseline</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>2450</t>
+  </si>
+  <si>
+    <t>1900</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1838,7 @@
     </row>
     <row r="2" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -2007,7 +2027,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C21" s="71"/>
       <c r="D21" s="72"/>
@@ -2048,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="71" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C25" s="71"/>
       <c r="D25" s="72"/>
@@ -2078,7 +2098,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="71" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C28" s="71"/>
       <c r="D28" s="72"/>
@@ -2088,7 +2108,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="71" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="72"/>
@@ -2098,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="72"/>
@@ -2245,18 +2265,10 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B18:D18"/>
@@ -2273,10 +2285,18 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,8 +2315,8 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH5" sqref="AH5"/>
+      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,79 +2375,79 @@
         <v>36</v>
       </c>
       <c r="G1" s="33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H1" s="32" t="s">
         <v>37</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>38</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="L1" s="32" t="s">
         <v>39</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="N1" s="32" t="s">
         <v>40</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>41</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="R1" s="32" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="T1" s="31" t="s">
         <v>43</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="V1" s="32" t="s">
         <v>44</v>
       </c>
       <c r="W1" s="34" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="X1" s="32" t="s">
         <v>45</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="Z1" s="32" t="s">
         <v>46</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB1" s="32" t="s">
         <v>47</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AD1" s="32" t="s">
         <v>48</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="45" x14ac:dyDescent="0.25">
@@ -2441,88 +2461,88 @@
         <v>60</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="G2" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="40" t="s">
-        <v>114</v>
-      </c>
       <c r="H2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="N2" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="T2" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="V2" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="X2" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="P2" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="U2" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="V2" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="X2" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA2" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" s="39" t="s">
-        <v>135</v>
-      </c>
       <c r="AC2" s="40" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="AD2" s="44" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AE2" s="40" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="135" x14ac:dyDescent="0.25">
@@ -2537,90 +2557,88 @@
         <v>60</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H3" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="J3" s="37">
-        <f>5500-350/60*C3</f>
-        <v>5150</v>
+        <v>5250</v>
       </c>
       <c r="K3" s="40" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L3" s="46" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="N3" s="39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="P3" s="39" t="s">
         <v>81</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="R3" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S3" s="40" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="T3" s="47">
-        <f>851-($K$2-K3)/$K$2*851</f>
-        <v>799.09676265426583</v>
+        <v>770</v>
       </c>
       <c r="U3" s="48">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="V3" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="W3" s="40">
-        <v>5.25</v>
+        <v>126</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>207</v>
       </c>
       <c r="X3" s="39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="43" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="Z3" s="39" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="AB3" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AC3" s="40" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="AD3" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE3" s="41" t="s">
-        <v>102</v>
+        <v>121</v>
+      </c>
+      <c r="AE3" s="40" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="120" x14ac:dyDescent="0.25">
@@ -2635,90 +2653,88 @@
         <v>60</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>184</v>
+        <v>136</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J4" s="37">
-        <f>J3-50/60*C4</f>
         <v>5100</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="L4" s="46" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M4" s="40" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="N4" s="39" t="s">
         <v>81</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P4" s="39" t="s">
         <v>81</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="R4" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="S4" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="T4" s="47">
+        <v>760</v>
+      </c>
+      <c r="U4" s="48">
+        <v>760</v>
+      </c>
+      <c r="V4" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="S4" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="T4" s="47">
-        <f t="shared" ref="T4:T6" si="0">851-($K$2-K4)/$K$2*851</f>
-        <v>799.09676265426583</v>
-      </c>
-      <c r="U4" s="48">
-        <v>790</v>
-      </c>
-      <c r="V4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="W4" s="40">
-        <v>6</v>
+      <c r="W4" s="40" t="s">
+        <v>208</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="Z4" s="39" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AA4" s="40" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="AB4" s="39" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AC4" s="40" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AD4" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE4" s="41" t="s">
-        <v>207</v>
+        <v>121</v>
+      </c>
+      <c r="AE4" s="40" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,7 +2749,7 @@
         <v>240</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>50</v>
@@ -2742,81 +2758,79 @@
         <v>78</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>187</v>
+      <c r="I5" s="41" t="s">
+        <v>192</v>
       </c>
       <c r="J5" s="37">
-        <f>J4-50/60*C5</f>
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="L5" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="40" t="s">
-        <v>165</v>
+      <c r="M5" s="41" t="s">
+        <v>199</v>
       </c>
       <c r="N5" s="39" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P5" s="39" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>197</v>
+        <v>97</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="T5" s="47">
-        <f t="shared" si="0"/>
-        <v>765.30638526202824</v>
+        <v>750</v>
       </c>
       <c r="U5" s="48">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="V5" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="40">
-        <v>4.75</v>
+      <c r="W5" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="X5" s="44" t="s">
         <v>83</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Z5" s="39" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="AA5" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB5" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AC5" s="40" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="AD5" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE5" s="40" t="s">
-        <v>208</v>
+        <v>154</v>
+      </c>
+      <c r="AE5" s="41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="165" x14ac:dyDescent="0.25">
@@ -2831,90 +2845,89 @@
         <v>30</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="J6" s="37">
         <f>J5</f>
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="K6" s="49">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M6" s="40" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P6" s="50" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R6" s="39" t="s">
         <v>53</v>
       </c>
       <c r="S6" s="40" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="T6" s="47">
-        <f t="shared" si="0"/>
-        <v>791.48631729565375</v>
+        <v>740</v>
       </c>
       <c r="U6" s="48">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="V6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="W6" s="40">
-        <v>4.75</v>
+      <c r="W6" s="41" t="s">
+        <v>209</v>
       </c>
       <c r="X6" s="44" t="s">
         <v>83</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>93</v>
+        <v>211</v>
       </c>
       <c r="Z6" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AA6" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB6" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AC6" s="40" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="AD6" s="44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AE6" s="40" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="90" x14ac:dyDescent="0.25">
@@ -2929,7 +2942,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>54</v>
@@ -2937,82 +2950,82 @@
       <c r="F7" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>122</v>
+      <c r="G7" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="H7" s="44" t="s">
         <v>85</v>
       </c>
       <c r="I7" s="40" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J7" s="37">
         <f>J6+100/60*C7</f>
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M7" s="40" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N7" s="39" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="P7" s="44" t="s">
         <v>86</v>
       </c>
       <c r="Q7" s="41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R7" s="44" t="s">
         <v>86</v>
       </c>
       <c r="S7" s="40" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="T7" s="47">
         <f>T6</f>
-        <v>791.48631729565375</v>
+        <v>740</v>
       </c>
       <c r="U7" s="48">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="V7" s="44" t="s">
         <v>87</v>
       </c>
       <c r="W7" s="51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X7" s="44" t="s">
         <v>83</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="Z7" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AA7" s="40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AB7" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AC7" s="40" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="AD7" s="44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AE7" s="40" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="60" x14ac:dyDescent="0.25">
@@ -3020,102 +3033,102 @@
         <v>6</v>
       </c>
       <c r="B8" s="37">
-        <f t="shared" ref="B8:B9" si="1">B7+C7</f>
+        <f t="shared" ref="B8:B9" si="0">B7+C7</f>
         <v>570</v>
       </c>
       <c r="C8" s="37">
         <v>160</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="H8" s="44" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="40" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="J8" s="37">
         <v>5600</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M8" s="40" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="N8" s="52" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P8" s="52" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="40" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="R8" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="S8" s="43" t="s">
-        <v>198</v>
+        <v>205</v>
+      </c>
+      <c r="S8" s="40" t="s">
+        <v>183</v>
       </c>
       <c r="T8" s="47">
         <f>T7</f>
-        <v>791.48631729565375</v>
+        <v>740</v>
       </c>
       <c r="U8" s="48">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="V8" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="51">
+      <c r="W8" s="40">
         <v>5.5</v>
       </c>
       <c r="X8" s="52" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Y8" s="40" t="s">
         <v>51</v>
       </c>
       <c r="Z8" s="39" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AA8" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AB8" s="44" t="s">
         <v>90</v>
       </c>
       <c r="AC8" s="43" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="AD8" s="44" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AE8" s="40" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>730</v>
       </c>
       <c r="C9" s="37"/>
@@ -3156,11 +3169,11 @@
       <c r="C10" s="83"/>
       <c r="D10" s="83"/>
       <c r="J10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S10" s="59"/>
       <c r="T10" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">

--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFEEF1-BF4F-4CE3-AE0E-6A3B57CE93E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE39C50-195C-4E0D-AEE6-406B4968092D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="645" windowWidth="18915" windowHeight="10815" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="345" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat Multitrauma Overview" sheetId="5" r:id="rId1"/>
     <sheet name="Combat Multitrauma Breakdown" sheetId="6" r:id="rId2"/>
+    <sheet name="Combat Multitrauma" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Combat Multitrauma Breakdown'!$A$1:$AE$10</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="260">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -971,6 +972,161 @@
   </si>
   <si>
     <t>1900</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time  (s)</t>
+  </si>
+  <si>
+    <t>Sample Scenario Time  (s)</t>
+  </si>
+  <si>
+    <t>Heart Rate  (beats/min)</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "tourniquet" is applied to the hemorrhaging leg. </t>
+  </si>
+  <si>
+    <t>A bolus of 5 mg of morphine is administered intravenously. Saline administration continues</t>
+  </si>
+  <si>
+    <t>A pressure dressing  is applied
+Tension pneumothorax has progressed untreated for 3 minutes.</t>
+  </si>
+  <si>
+    <t>Massive hemorrhage from the right leg.
+350 mL/min
+Tension pneumothorax has progressed untreated for 2 minutes.</t>
+  </si>
+  <si>
+    <t>Mean Arterial Pressure  (mmHg)</t>
+  </si>
+  <si>
+    <t>Cardiac Output  (mL/min)</t>
+  </si>
+  <si>
+    <t>Mean Central Venous Pressure (mmHg)</t>
+  </si>
+  <si>
+    <t>Respiration Rate
+(Breaths/min)</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation
+(fraction)</t>
+  </si>
+  <si>
+    <t>Tidal Volume
+(mL)</t>
+  </si>
+  <si>
+    <t>~25% Increase@cite gutierrez2004clinical
+Tachycardia @cite leigh2005tension</t>
+  </si>
+  <si>
+    <t>~25% Increase @cite gutierrez2004clinical
+Tachycardia @cite leigh2005tension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC or decrease @cite leigh2005tension
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117.9 @cite khorasani2008assessment
+ Possibly no significant change @cite price2006novel
+</t>
+  </si>
+  <si>
+    <t>15-20% Decrease @cite Morgan2006Clinical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase @cite grmec2009relationship
+</t>
+  </si>
+  <si>
+    <t>Decrease @cite guyton2006medical</t>
+  </si>
+  <si>
+    <t>Increase @cite echt1974effective</t>
+  </si>
+  <si>
+    <t>Decrease@cite chrisp2000action @cite khorasani2008assessment
+Plateaus @cite waisman2013transient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~25% Decrease @cite waisman2013transient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase &gt; 0.95 @cite rim2011life
+</t>
+  </si>
+  <si>
+    <t>90 - 110 @cite metoyer2016SME</t>
+  </si>
+  <si>
+    <t>Decrease @cite Morgan2006Clinical</t>
+  </si>
+  <si>
+    <t>Move toward Baseline @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>Mild Decrease @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>Back to Baseline @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>Moderate Decrease @cite bergeronSME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Decrease @cite drummond2010oxygen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+NC or Slight Decrease @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>40 @cite chrisp2000action
+14-20 @cite gutierrez2004clinical
+Tachypnea @cite waisman2013transient @cite army200968w @cite leigh2005tensio</t>
+  </si>
+  <si>
+    <t>Slight decrease because of partial correction of the hypovolemia.@cite metoyer2016SME
+Stress-Induced Moderate Tachycardia @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>Decreases @cite guyton2006medical</t>
+  </si>
+  <si>
+    <t>NC @cite guyton2006medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild Decrease @cite Morgan2006Clinical      Increase @cite guyton2006medical  </t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase @cite guyton2006medical  </t>
+  </si>
+  <si>
+    <t>Decrease @cite chrisp2000action @cite army200968w @cite leigh2005tension @cite khorasani2008assessment</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1243,6 +1399,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1250,7 +1419,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1470,6 +1639,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1817,8 +2004,8 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2265,23 +2452,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
@@ -2297,6 +2467,23 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,9 +2501,9 @@
   </sheetPr>
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE9" sqref="AE9"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X3" sqref="X3:X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,4 +3410,568 @@
     <oddHeader>&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEA3A73-A32D-489E-932B-3617BA085B3B}">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V7" sqref="V3:V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+    <col min="19" max="19" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="V1" s="32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="T2" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="84">
+        <v>60</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="84">
+        <v>120</v>
+      </c>
+      <c r="I3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="R3" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="S3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="T3" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="U3" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="V3" s="40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="84">
+        <v>120</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="84">
+        <v>180</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L4" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="T4" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="U4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="V4" s="40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="84">
+        <v>180</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="84">
+        <v>420</v>
+      </c>
+      <c r="I5" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="K5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="M5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="O5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="R5" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="T5" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="U5" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="V5" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="84">
+        <v>420</v>
+      </c>
+      <c r="G6" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="84">
+        <v>450</v>
+      </c>
+      <c r="I6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="P6" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="R6" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="S6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="T6" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="U6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="V6" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="84">
+        <v>450</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="84">
+        <v>570</v>
+      </c>
+      <c r="I7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L7" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="O7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="S7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="T7" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="U7" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="84">
+        <v>570</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="84">
+        <v>730</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="K8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="L8" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="M8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="N8" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="P8" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="R8" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="S8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="U8" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="V8" s="41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="L9" s="89"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE39C50-195C-4E0D-AEE6-406B4968092D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911FAF9-461B-450C-8A55-D74A7E71EA09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="345" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="261">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -995,9 +995,6 @@
     <t>---</t>
   </si>
   <si>
-    <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">A "tourniquet" is applied to the hemorrhaging leg. </t>
   </si>
   <si>
@@ -1120,13 +1117,19 @@
     <t xml:space="preserve">Mild Decrease @cite Morgan2006Clinical      Increase @cite guyton2006medical  </t>
   </si>
   <si>
-    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase @cite guyton2006medical  </t>
   </si>
   <si>
     <t>Decrease @cite chrisp2000action @cite army200968w @cite leigh2005tension @cite khorasani2008assessment</t>
+  </si>
+  <si>
+    <t>|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>|&lt;span class="warning"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|</t>
   </si>
 </sst>
 </file>
@@ -3414,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEA3A73-A32D-489E-932B-3617BA085B3B}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V7" sqref="V3:V7"/>
+    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3442,7 +3445,7 @@
     <col min="22" max="22" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>215</v>
       </c>
@@ -3474,45 +3477,48 @@
         <v>220</v>
       </c>
       <c r="L1" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="N1" s="86" t="s">
+      <c r="P1" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="P1" s="86" t="s">
+      <c r="R1" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="T1" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="V1" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="V1" s="32" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="W1" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="87" t="s">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="C2" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="D2" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="E2" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="F2" s="84" t="s">
         <v>215</v>
+      </c>
+      <c r="G2" s="87" t="s">
+        <v>221</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>221</v>
@@ -3559,8 +3565,11 @@
       <c r="V2" s="87" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+      <c r="W2" s="84" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>215</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>215</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E3" s="84" t="s">
         <v>215</v>
@@ -3586,49 +3595,52 @@
         <v>120</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K3" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L3" s="40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M3" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="N3" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="O3" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="40" t="s">
-        <v>240</v>
-      </c>
       <c r="Q3" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S3" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="T3" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="U3" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="V3" s="40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="135" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="W3" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>215</v>
       </c>
@@ -3639,7 +3651,7 @@
         <v>215</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>215</v>
@@ -3654,49 +3666,52 @@
         <v>180</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="J4" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="L4" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>235</v>
-      </c>
       <c r="M4" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="N4" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="40" t="s">
+      <c r="Q4" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="S4" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="T4" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="T4" s="40" t="s">
+      <c r="U4" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="V4" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="U4" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="V4" s="40" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="W4" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>215</v>
       </c>
@@ -3722,49 +3737,52 @@
         <v>420</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="N5" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O5" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="P5" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="R5" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S5" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="T5" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U5" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="V5" s="40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W5" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="84" t="s">
         <v>215</v>
       </c>
@@ -3775,7 +3793,7 @@
         <v>215</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" s="84" t="s">
         <v>215</v>
@@ -3790,49 +3808,52 @@
         <v>450</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="J6" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K6" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M6" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="N6" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O6" s="84" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P6" s="41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="R6" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S6" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="T6" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U6" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="V6" s="40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="105" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W6" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
         <v>215</v>
       </c>
@@ -3858,49 +3879,52 @@
         <v>570</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="J7" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L7" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M7" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="N7" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" s="84" t="s">
+        <v>259</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q7" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="O7" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>222</v>
-      </c>
       <c r="R7" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S7" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="T7" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U7" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="V7" s="40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="W7" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>215</v>
       </c>
@@ -3911,7 +3935,7 @@
         <v>215</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>215</v>
@@ -3926,49 +3950,52 @@
         <v>730</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="J8" s="88" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L8" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="M8" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="N8" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="M8" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="N8" s="40" t="s">
+      <c r="O8" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="O8" s="84" t="s">
-        <v>222</v>
-      </c>
       <c r="P8" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q8" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="R8" s="88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="S8" s="84" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="T8" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U8" s="84" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="V8" s="41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="W8" s="84" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="L9" s="89"/>
     </row>
   </sheetData>

--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F911FAF9-461B-450C-8A55-D74A7E71EA09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E33433-48AE-411A-BA86-2E24AAEB85D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="345" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="265">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -1001,15 +1001,6 @@
     <t>A bolus of 5 mg of morphine is administered intravenously. Saline administration continues</t>
   </si>
   <si>
-    <t>A pressure dressing  is applied
-Tension pneumothorax has progressed untreated for 3 minutes.</t>
-  </si>
-  <si>
-    <t>Massive hemorrhage from the right leg.
-350 mL/min
-Tension pneumothorax has progressed untreated for 2 minutes.</t>
-  </si>
-  <si>
     <t>Mean Arterial Pressure  (mmHg)</t>
   </si>
   <si>
@@ -1019,60 +1010,15 @@
     <t>Mean Central Venous Pressure (mmHg)</t>
   </si>
   <si>
-    <t>Respiration Rate
-(Breaths/min)</t>
-  </si>
-  <si>
-    <t>Oxygen Saturation
-(fraction)</t>
-  </si>
-  <si>
-    <t>Tidal Volume
-(mL)</t>
-  </si>
-  <si>
-    <t>~25% Increase@cite gutierrez2004clinical
-Tachycardia @cite leigh2005tension</t>
-  </si>
-  <si>
-    <t>~25% Increase @cite gutierrez2004clinical
-Tachycardia @cite leigh2005tension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC or decrease @cite leigh2005tension
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">117.9 @cite khorasani2008assessment
- Possibly no significant change @cite price2006novel
-</t>
-  </si>
-  <si>
     <t>15-20% Decrease @cite Morgan2006Clinical</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase @cite grmec2009relationship
-</t>
-  </si>
-  <si>
     <t>Decrease @cite guyton2006medical</t>
   </si>
   <si>
     <t>Increase @cite echt1974effective</t>
   </si>
   <si>
-    <t>Decrease@cite chrisp2000action @cite khorasani2008assessment
-Plateaus @cite waisman2013transient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~25% Decrease @cite waisman2013transient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase &gt; 0.95 @cite rim2011life
-</t>
-  </si>
-  <si>
     <t>90 - 110 @cite metoyer2016SME</t>
   </si>
   <si>
@@ -1091,32 +1037,12 @@
     <t>Moderate Decrease @cite bergeronSME</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Decrease @cite drummond2010oxygen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-NC or Slight Decrease @cite bergeronSME</t>
-  </si>
-  <si>
-    <t>40 @cite chrisp2000action
-14-20 @cite gutierrez2004clinical
-Tachypnea @cite waisman2013transient @cite army200968w @cite leigh2005tensio</t>
-  </si>
-  <si>
-    <t>Slight decrease because of partial correction of the hypovolemia.@cite metoyer2016SME
-Stress-Induced Moderate Tachycardia @cite bergeronSME</t>
-  </si>
-  <si>
     <t>Decreases @cite guyton2006medical</t>
   </si>
   <si>
     <t>NC @cite guyton2006medical</t>
   </si>
   <si>
-    <t xml:space="preserve">Mild Decrease @cite Morgan2006Clinical      Increase @cite guyton2006medical  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase @cite guyton2006medical  </t>
   </si>
   <si>
@@ -1130,6 +1056,161 @@
   </si>
   <si>
     <t>&lt;/span&gt;|</t>
+  </si>
+  <si>
+    <t>Respiration Rate (Breaths/min)</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation (fraction)</t>
+  </si>
+  <si>
+    <t>Tidal Volume (mL)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Begin Tension Pneumothorax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Left side, closed, severity 0.75) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Begin Massive Hemorrhage </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Right leg, rate 350 mL/min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tourniquet </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Hemorrhage completely controlled, rate 0 mL/min)</t>
+    </r>
+  </si>
+  <si>
+    <t>Injuries are untreated.</t>
+  </si>
+  <si>
+    <t>A pressure dressing  is applied.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Intravenous Fluid Resuscitation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Saline, 500 mL at rate of 100 mL/min)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Narcotics (Morphine) Administration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(5 mL of morphine IV at concentration of 1 mg/mL)</t>
+    </r>
+  </si>
+  <si>
+    <t>~25% Increase; @cite gutierrez2004clinical Tachycardia @cite leigh2005tension</t>
+  </si>
+  <si>
+    <t>Slight decrease because of partial correction of the hypovolemia; @cite metoyer2016SME Stress-Induced Moderate Tachycardia @cite bergeronSME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild Decrease; @cite Morgan2006Clinical  Increase @cite guyton2006medical  </t>
+  </si>
+  <si>
+    <t>Decrease; @cite chrisp2000action @cite khorasani2008assessment Plateaus @cite waisman2013transient</t>
+  </si>
+  <si>
+    <t>Decrease @cite drummond2010oxygen</t>
+  </si>
+  <si>
+    <t>NC or decrease @cite leigh2005tension</t>
+  </si>
+  <si>
+    <t>40; @cite chrisp2000action 14-20; @cite gutierrez2004clinical Tachypnea @cite waisman2013transient @cite army200968w @cite leigh2005tension</t>
+  </si>
+  <si>
+    <t>~25% Decrease @cite waisman2013transient</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Non-tourniquet bleeding control </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Manual pressure reduces hemorrhage to 50 mL/min)</t>
+    </r>
+  </si>
+  <si>
+    <t>NC or Slight Decrease @cite bergeronSME</t>
+  </si>
+  <si>
+    <t>Increase &gt; 0.95 @cite rim2011life</t>
+  </si>
+  <si>
+    <t>117.9; @cite khorasani2008assessment Possibly no significant change @cite price2006novel</t>
+  </si>
+  <si>
+    <t>Increase @cite grmec2009relationship</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1503,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1655,11 +1736,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3419,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEA3A73-A32D-489E-932B-3617BA085B3B}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,17 +3523,17 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="20" max="20" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="20.42578125" customWidth="1"/>
   </cols>
@@ -3476,23 +3569,41 @@
       <c r="J1" s="86" t="s">
         <v>220</v>
       </c>
+      <c r="K1" s="84" t="s">
+        <v>215</v>
+      </c>
       <c r="L1" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="N1" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="P1" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="R1" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="T1" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="V1" s="32" t="s">
-        <v>231</v>
+      <c r="Q1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="89" t="s">
+        <v>243</v>
+      </c>
+      <c r="S1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="U1" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="89" t="s">
+        <v>245</v>
       </c>
       <c r="W1" s="84" t="s">
         <v>215</v>
@@ -3517,8 +3628,8 @@
       <c r="F2" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="87" t="s">
-        <v>221</v>
+      <c r="G2" s="84" t="s">
+        <v>215</v>
       </c>
       <c r="H2" s="87" t="s">
         <v>221</v>
@@ -3573,14 +3684,14 @@
       <c r="A3" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>102</v>
+      <c r="B3" s="90" t="s">
+        <v>246</v>
       </c>
       <c r="C3" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>225</v>
+      <c r="D3" s="90" t="s">
+        <v>248</v>
       </c>
       <c r="E3" s="84" t="s">
         <v>215</v>
@@ -3595,63 +3706,63 @@
         <v>120</v>
       </c>
       <c r="I3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="R3" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="L3" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="M3" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="P3" s="40" t="s">
+      <c r="S3" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="T3" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="Q3" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R3" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="S3" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="T3" s="40" t="s">
-        <v>257</v>
-      </c>
       <c r="U3" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="V3" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="V3" s="91" t="s">
+        <v>259</v>
       </c>
       <c r="W3" s="84" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>103</v>
+      <c r="B4" s="87" t="s">
+        <v>260</v>
       </c>
       <c r="C4" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>224</v>
+      <c r="D4" s="90" t="s">
+        <v>249</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>215</v>
@@ -3666,62 +3777,62 @@
         <v>180</v>
       </c>
       <c r="I4" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="L4" s="91" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>228</v>
+      </c>
+      <c r="O4" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="R4" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="J4" s="40" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="L4" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="M4" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R4" s="40" t="s">
-        <v>251</v>
-      </c>
       <c r="S4" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="T4" s="40" t="s">
         <v>240</v>
       </c>
+      <c r="T4" s="91" t="s">
+        <v>255</v>
+      </c>
       <c r="U4" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="V4" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="V4" s="91" t="s">
+        <v>259</v>
       </c>
       <c r="W4" s="84" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="87" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="90" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -3737,62 +3848,62 @@
         <v>420</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>230</v>
       </c>
       <c r="K5" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>253</v>
+        <v>240</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>236</v>
       </c>
       <c r="M5" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="N5" s="40" t="s">
-        <v>238</v>
+        <v>240</v>
+      </c>
+      <c r="N5" s="91" t="s">
+        <v>228</v>
       </c>
       <c r="O5" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="P5" s="40" t="s">
-        <v>250</v>
+        <v>240</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>261</v>
       </c>
       <c r="Q5" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R5" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="R5" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="T5" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="U5" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="V5" s="91" t="s">
+        <v>234</v>
+      </c>
+      <c r="W5" s="84" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="S5" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="T5" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="U5" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="V5" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="W5" s="84" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>105</v>
-      </c>
       <c r="C6" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="90" t="s">
         <v>222</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -3808,62 +3919,62 @@
         <v>450</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="J6" s="40" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>263</v>
       </c>
       <c r="K6" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="L6" s="40" t="s">
-        <v>254</v>
+        <v>240</v>
+      </c>
+      <c r="L6" s="91" t="s">
+        <v>237</v>
       </c>
       <c r="M6" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>254</v>
+        <v>240</v>
+      </c>
+      <c r="N6" s="91" t="s">
+        <v>237</v>
       </c>
       <c r="O6" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="P6" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="P6" s="92" t="s">
+        <v>261</v>
       </c>
       <c r="Q6" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="R6" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="S6" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="U6" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="V6" s="40" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="V6" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="W6" s="84" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="30" t="s">
-        <v>106</v>
+      <c r="B7" s="87" t="s">
+        <v>250</v>
       </c>
       <c r="C7" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="90" t="s">
         <v>54</v>
       </c>
       <c r="E7" s="84" t="s">
@@ -3879,62 +3990,62 @@
         <v>570</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="J7" s="40" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>253</v>
       </c>
       <c r="K7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>237</v>
+        <v>240</v>
+      </c>
+      <c r="L7" s="91" t="s">
+        <v>264</v>
       </c>
       <c r="M7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="N7" s="40" t="s">
-        <v>256</v>
+        <v>240</v>
+      </c>
+      <c r="N7" s="91" t="s">
+        <v>238</v>
       </c>
       <c r="O7" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="P7" s="41" t="s">
-        <v>245</v>
+        <v>241</v>
+      </c>
+      <c r="P7" s="92" t="s">
+        <v>232</v>
       </c>
       <c r="Q7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R7" s="40" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="R7" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="S7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="T7" s="40" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="T7" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="U7" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="V7" s="40" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="V7" s="91" t="s">
+        <v>234</v>
       </c>
       <c r="W7" s="84" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>107</v>
+      <c r="B8" s="87" t="s">
+        <v>251</v>
       </c>
       <c r="C8" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="90" t="s">
         <v>223</v>
       </c>
       <c r="E8" s="84" t="s">
@@ -3950,53 +4061,53 @@
         <v>730</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="J8" s="88" t="s">
-        <v>244</v>
+        <v>240</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>231</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="L8" s="88" t="s">
-        <v>255</v>
+        <v>240</v>
+      </c>
+      <c r="L8" s="93" t="s">
+        <v>254</v>
       </c>
       <c r="M8" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="N8" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="N8" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="P8" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="R8" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="S8" s="84" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="O8" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q8" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="R8" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="S8" s="84" t="s">
-        <v>258</v>
-      </c>
-      <c r="T8" s="40" t="s">
-        <v>249</v>
-      </c>
       <c r="U8" s="84" t="s">
-        <v>259</v>
-      </c>
-      <c r="V8" s="41" t="s">
-        <v>248</v>
+        <v>241</v>
+      </c>
+      <c r="V8" s="92" t="s">
+        <v>235</v>
       </c>
       <c r="W8" s="84" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L9" s="89"/>
+      <c r="L9" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E33433-48AE-411A-BA86-2E24AAEB85D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E6E00F-EC3B-4BCF-B757-CA81474A0720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="345" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3512,8 +3512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEA3A73-A32D-489E-932B-3617BA085B3B}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,23 +3610,23 @@
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="87" t="s">
         <v>221</v>
-      </c>
-      <c r="F2" s="84" t="s">
-        <v>215</v>
       </c>
       <c r="G2" s="84" t="s">
         <v>215</v>

--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E6E00F-EC3B-4BCF-B757-CA81474A0720}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B3165-E82C-40D1-A341-DC56CCB4F7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="345" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat Multitrauma Overview" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -1052,9 +1052,6 @@
     <t>|&lt;span class="success"&gt;</t>
   </si>
   <si>
-    <t>|&lt;span class="warning"&gt;</t>
-  </si>
-  <si>
     <t>&lt;/span&gt;|</t>
   </si>
   <si>
@@ -1211,6 +1208,12 @@
   </si>
   <si>
     <t>Increase @cite grmec2009relationship</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1506,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1685,6 +1688,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1725,33 +1758,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2112,20 +2118,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="75"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -2156,82 +2162,82 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
     </row>
     <row r="7" spans="1:4" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
     </row>
     <row r="8" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
     </row>
     <row r="11" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
     </row>
     <row r="12" spans="1:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -2259,222 +2265,222 @@
       <c r="A16" s="70">
         <v>1</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
     </row>
     <row r="17" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="70">
         <v>2</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="82"/>
     </row>
     <row r="18" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="70">
         <v>3</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70">
         <v>4</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="72"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="70">
         <v>5</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="72"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="82"/>
     </row>
     <row r="21" spans="1:5" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="70">
         <v>6</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="72"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
     </row>
     <row r="22" spans="1:5" ht="34.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="70">
         <v>7</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="82"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="70">
         <v>8</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="82"/>
     </row>
     <row r="24" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="70">
         <v>9</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="82"/>
     </row>
     <row r="25" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="70">
         <v>10</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="72"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="82"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="70">
         <v>11</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="82"/>
     </row>
     <row r="27" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="70">
         <v>12</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="72"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
     </row>
     <row r="28" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="70">
         <v>13</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="82"/>
     </row>
     <row r="29" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="70">
         <v>14</v>
       </c>
-      <c r="B29" s="71" t="s">
+      <c r="B29" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
     </row>
     <row r="30" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="70">
         <v>15</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
     </row>
     <row r="31" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="70">
         <v>16</v>
       </c>
-      <c r="B31" s="71" t="s">
+      <c r="B31" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
     </row>
     <row r="32" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="70">
         <v>17</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
     </row>
     <row r="33" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="70">
         <v>18</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
     </row>
     <row r="34" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="70">
         <v>19</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
     </row>
     <row r="35" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="70">
         <v>20</v>
       </c>
-      <c r="B35" s="71" t="s">
+      <c r="B35" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="82"/>
     </row>
     <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="70">
         <v>21</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
     </row>
     <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="70">
         <v>22</v>
       </c>
-      <c r="B37" s="71" t="s">
+      <c r="B37" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
@@ -2548,6 +2554,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
@@ -2564,22 +2586,6 @@
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3447,10 +3453,10 @@
       <c r="AE9" s="55"/>
     </row>
     <row r="10" spans="1:31" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
       <c r="J10" s="1" t="s">
         <v>92</v>
       </c>
@@ -3512,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEA3A73-A32D-489E-932B-3617BA085B3B}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W8" sqref="A1:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,575 +3545,575 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="85" t="s">
+      <c r="A1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="85" t="s">
+      <c r="C1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F1" s="86" t="s">
+      <c r="E1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H1" s="86" t="s">
+      <c r="G1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="86" t="s">
+      <c r="I1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="K1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="86" t="s">
+      <c r="K1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="M1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="86" t="s">
+      <c r="M1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="P1" s="86" t="s">
+      <c r="O1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="Q1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="R1" s="89" t="s">
+      <c r="Q1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="R1" s="76" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="76" t="s">
         <v>243</v>
       </c>
-      <c r="S1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="89" t="s">
+      <c r="U1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="U1" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="89" t="s">
+      <c r="W1" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="O2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="S2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="T2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="U2" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="84" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="I2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="J2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="L2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="M2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="N2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="P2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="R2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="S2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="T2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="V2" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="W2" s="84" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="90" t="s">
+      <c r="C3" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="71">
+        <v>60</v>
+      </c>
+      <c r="G3" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="71">
+        <v>120</v>
+      </c>
+      <c r="I3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="K3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="P3" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="R3" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="S3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="T3" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="U3" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="V3" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="W3" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="71">
+        <v>120</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="71">
+        <v>180</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="K4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="N4" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="P4" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="R4" s="78" t="s">
+        <v>257</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="T4" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="U4" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="V4" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="W4" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="71">
+        <v>180</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="71">
+        <v>420</v>
+      </c>
+      <c r="I5" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="J5" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="K5" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="L5" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>228</v>
+      </c>
+      <c r="O5" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="P5" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q5" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="R5" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="S5" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="T5" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="U5" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="V5" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="W5" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B6" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="84">
-        <v>60</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="84">
-        <v>120</v>
-      </c>
-      <c r="I3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="91" t="s">
+      <c r="C6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" s="71">
+        <v>420</v>
+      </c>
+      <c r="G6" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="71">
+        <v>450</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="K6" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="M6" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="78" t="s">
+        <v>237</v>
+      </c>
+      <c r="O6" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="P6" s="79" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q6" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="R6" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="S6" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="T6" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="V6" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="W6" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" s="71">
+        <v>450</v>
+      </c>
+      <c r="G7" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="71">
+        <v>570</v>
+      </c>
+      <c r="I7" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="K3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L3" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="M3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="N3" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="P3" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="R3" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="S3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="T3" s="91" t="s">
-        <v>239</v>
-      </c>
-      <c r="U3" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="V3" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="W3" s="84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>249</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F4" s="84">
-        <v>120</v>
-      </c>
-      <c r="G4" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H4" s="84">
-        <v>180</v>
-      </c>
-      <c r="I4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="J4" s="91" t="s">
-        <v>252</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L4" s="91" t="s">
-        <v>257</v>
-      </c>
-      <c r="M4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="N4" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="O4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="P4" s="91" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="R4" s="91" t="s">
-        <v>258</v>
-      </c>
-      <c r="S4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="T4" s="91" t="s">
+      <c r="K7" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="78" t="s">
+        <v>263</v>
+      </c>
+      <c r="M7" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="N7" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="O7" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="P7" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q7" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="R7" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="S7" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="T7" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="U7" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="V7" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="W7" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="71">
+        <v>570</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="71">
+        <v>730</v>
+      </c>
+      <c r="I8" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" s="80" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="M8" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="N8" s="78" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="P8" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="R8" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="S8" s="94" t="s">
+        <v>264</v>
+      </c>
+      <c r="T8" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="U4" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="V4" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="W4" s="84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="84">
-        <v>180</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="84">
-        <v>420</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="U8" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="V8" s="79" t="s">
+        <v>235</v>
+      </c>
+      <c r="W8" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="J5" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L5" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="N5" s="91" t="s">
-        <v>228</v>
-      </c>
-      <c r="O5" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="P5" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q5" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="R5" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="S5" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="T5" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="U5" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="V5" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="W5" s="84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>222</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="84">
-        <v>420</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H6" s="84">
-        <v>450</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="J6" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L6" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="M6" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="O6" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="P6" s="92" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q6" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="R6" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="S6" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="T6" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="U6" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="V6" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="W6" s="84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="105" x14ac:dyDescent="0.25">
-      <c r="A7" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="84">
-        <v>450</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H7" s="84">
-        <v>570</v>
-      </c>
-      <c r="I7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="J7" s="91" t="s">
-        <v>253</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L7" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="M7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="N7" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="O7" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="P7" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="R7" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="S7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="T7" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="U7" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="V7" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="W7" s="84" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="B8" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="84">
-        <v>570</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="84">
-        <v>730</v>
-      </c>
-      <c r="I8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8" s="93" t="s">
-        <v>231</v>
-      </c>
-      <c r="K8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="93" t="s">
-        <v>254</v>
-      </c>
-      <c r="M8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="O8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="P8" s="91" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="R8" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="S8" s="84" t="s">
-        <v>240</v>
-      </c>
-      <c r="T8" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="U8" s="84" t="s">
-        <v>241</v>
-      </c>
-      <c r="V8" s="92" t="s">
-        <v>235</v>
-      </c>
-      <c r="W8" s="84" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="L9" s="88"/>
+      <c r="L9" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PulsePhysiologyEngine\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400B3165-E82C-40D1-A341-DC56CCB4F7B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D87D3-27D0-422B-8A66-909916946E34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="24825" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="265">
   <si>
     <t>Scenario Overview</t>
   </si>
@@ -1047,9 +1047,6 @@
   </si>
   <si>
     <t>Decrease @cite chrisp2000action @cite army200968w @cite leigh2005tension @cite khorasani2008assessment</t>
-  </si>
-  <si>
-    <t>|&lt;span class="success"&gt;</t>
   </si>
   <si>
     <t>&lt;/span&gt;|</t>
@@ -3519,7 +3516,7 @@
   <dimension ref="A1:W9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W8" sqref="A1:W8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,19 +3594,19 @@
         <v>215</v>
       </c>
       <c r="R1" s="76" t="s">
+        <v>241</v>
+      </c>
+      <c r="S1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="S1" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="76" t="s">
+      <c r="U1" s="71" t="s">
+        <v>215</v>
+      </c>
+      <c r="V1" s="76" t="s">
         <v>243</v>
-      </c>
-      <c r="U1" s="71" t="s">
-        <v>215</v>
-      </c>
-      <c r="V1" s="76" t="s">
-        <v>244</v>
       </c>
       <c r="W1" s="71" t="s">
         <v>215</v>
@@ -3691,13 +3688,13 @@
         <v>215</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="71" t="s">
         <v>215</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E3" s="71" t="s">
         <v>215</v>
@@ -3712,49 +3709,49 @@
         <v>120</v>
       </c>
       <c r="I3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J3" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L3" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N3" s="78" t="s">
         <v>228</v>
       </c>
       <c r="O3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3" s="78" t="s">
         <v>229</v>
       </c>
       <c r="Q3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R3" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T3" s="78" t="s">
         <v>239</v>
       </c>
       <c r="U3" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V3" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W3" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="135" x14ac:dyDescent="0.25">
@@ -3762,13 +3759,13 @@
         <v>215</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" s="71" t="s">
         <v>215</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>215</v>
@@ -3783,49 +3780,49 @@
         <v>180</v>
       </c>
       <c r="I4" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J4" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K4" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L4" s="78" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M4" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N4" s="78" t="s">
         <v>228</v>
       </c>
       <c r="O4" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P4" s="78" t="s">
         <v>229</v>
       </c>
       <c r="Q4" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R4" s="78" t="s">
+        <v>256</v>
+      </c>
+      <c r="S4" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="T4" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="U4" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="V4" s="78" t="s">
         <v>257</v>
       </c>
-      <c r="S4" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="T4" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="U4" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="V4" s="78" t="s">
-        <v>258</v>
-      </c>
       <c r="W4" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
@@ -3854,49 +3851,49 @@
         <v>420</v>
       </c>
       <c r="I5" s="94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J5" s="79" t="s">
         <v>230</v>
       </c>
-      <c r="K5" s="71" t="s">
-        <v>240</v>
+      <c r="K5" s="94" t="s">
+        <v>263</v>
       </c>
       <c r="L5" s="78" t="s">
         <v>236</v>
       </c>
       <c r="M5" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N5" s="78" t="s">
         <v>228</v>
       </c>
       <c r="O5" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P5" s="78" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R5" s="78" t="s">
         <v>234</v>
       </c>
       <c r="S5" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T5" s="78" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U5" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V5" s="78" t="s">
         <v>234</v>
       </c>
       <c r="W5" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
@@ -3904,7 +3901,7 @@
         <v>215</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" s="71" t="s">
         <v>215</v>
@@ -3925,49 +3922,49 @@
         <v>450</v>
       </c>
       <c r="I6" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J6" s="78" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K6" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L6" s="78" t="s">
         <v>237</v>
       </c>
       <c r="M6" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N6" s="78" t="s">
         <v>237</v>
       </c>
       <c r="O6" s="94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P6" s="79" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R6" s="78" t="s">
         <v>234</v>
       </c>
       <c r="S6" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T6" s="78" t="s">
         <v>234</v>
       </c>
       <c r="U6" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V6" s="78" t="s">
         <v>234</v>
       </c>
       <c r="W6" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="105" x14ac:dyDescent="0.25">
@@ -3975,7 +3972,7 @@
         <v>215</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="71" t="s">
         <v>215</v>
@@ -3996,49 +3993,49 @@
         <v>570</v>
       </c>
       <c r="I7" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J7" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K7" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L7" s="78" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="94" t="s">
         <v>263</v>
-      </c>
-      <c r="M7" s="94" t="s">
-        <v>264</v>
       </c>
       <c r="N7" s="78" t="s">
         <v>238</v>
       </c>
       <c r="O7" s="94" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P7" s="79" t="s">
         <v>232</v>
       </c>
       <c r="Q7" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R7" s="78" t="s">
         <v>234</v>
       </c>
       <c r="S7" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T7" s="78" t="s">
         <v>234</v>
       </c>
       <c r="U7" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V7" s="78" t="s">
         <v>234</v>
       </c>
       <c r="W7" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="60" x14ac:dyDescent="0.25">
@@ -4046,7 +4043,7 @@
         <v>215</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>215</v>
@@ -4067,49 +4064,49 @@
         <v>730</v>
       </c>
       <c r="I8" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J8" s="80" t="s">
         <v>231</v>
       </c>
       <c r="K8" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L8" s="80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M8" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N8" s="78" t="s">
         <v>238</v>
       </c>
       <c r="O8" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P8" s="78" t="s">
         <v>233</v>
       </c>
       <c r="Q8" s="94" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R8" s="80" t="s">
         <v>227</v>
       </c>
       <c r="S8" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="T8" s="78" t="s">
+        <v>254</v>
+      </c>
+      <c r="U8" s="94" t="s">
         <v>264</v>
-      </c>
-      <c r="T8" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="U8" s="94" t="s">
-        <v>265</v>
       </c>
       <c r="V8" s="79" t="s">
         <v>235</v>
       </c>
       <c r="W8" s="71" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">

--- a/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
+++ b/data/human/adult/validation/Scenarios/Showcases/CombatMultitraumaValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\respiratory-mechanics-source\data\human\adult\validation\Scenarios\Showcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse\documentation\source\data\human\adult\validation\Scenarios\Showcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892CEA0F-F46C-48AC-BEF5-81CB5A746C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA83272-30D4-4259-B784-9329E10AEF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="8370" windowWidth="25785" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="7425" windowWidth="27840" windowHeight="22365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat Multitrauma" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="54">
   <si>
     <t>A needle decompression procedure is applied on the affected side.</t>
   </si>
@@ -277,7 +277,10 @@
     <t>&lt;/span&gt;|&lt;span class="success"&gt;</t>
   </si>
   <si>
-    <t>&lt;/span&gt;|&lt;span class="warning"&gt;</t>
+    <t>|&lt;span class="success"&gt;</t>
+  </si>
+  <si>
+    <t>|&lt;span class="danger"&gt;</t>
   </si>
 </sst>
 </file>
@@ -300,16 +303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -329,7 +332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,47 +389,44 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,9 +443,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -483,9 +483,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,26 +518,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -570,26 +553,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -765,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEA3A73-A32D-489E-932B-3617BA085B3B}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,43 +924,43 @@
       <c r="H3" s="1">
         <v>120</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>51</v>
+      <c r="I3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="7" t="s">
         <v>51</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -1029,43 +995,43 @@
       <c r="H4" s="1">
         <v>180</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>51</v>
+      <c r="I4" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="S4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="V4" s="8" t="s">
@@ -1100,43 +1066,43 @@
       <c r="H5" s="1">
         <v>420</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="V5" s="8" t="s">
@@ -1171,43 +1137,43 @@
       <c r="H6" s="1">
         <v>450</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>51</v>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1242,43 +1208,43 @@
       <c r="H7" s="1">
         <v>570</v>
       </c>
-      <c r="I7" s="11" t="s">
-        <v>51</v>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="9" t="s">
+      <c r="O7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="R7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="7" t="s">
         <v>51</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -1313,46 +1279,46 @@
       <c r="H8" s="1">
         <v>730</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="I8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="10" t="s">
+      <c r="K8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="7" t="s">
         <v>51</v>
       </c>
       <c r="T8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="U8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="9" t="s">
+      <c r="U8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="8" t="s">
         <v>23</v>
       </c>
       <c r="W8" s="1" t="s">
